--- a/ResultadoEleicoesDistritos/R. A. AÇORES_CORVO.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_CORVO.xlsx
@@ -597,25 +597,25 @@
         <v>106</v>
       </c>
       <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>42</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>48</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>11</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
